--- a/ExtractSREO/Standardized-AP - REO excel 202112.xlsx
+++ b/ExtractSREO/Standardized-AP - REO excel 202112.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -566,11 +566,7 @@
           <t>City</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>Asset Type</t>
@@ -618,19 +614,11 @@
           <t>NOI  (Period Ending YTD 2021)</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Total DCR </t>
-        </is>
-      </c>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Loan Type</t>
-        </is>
-      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
@@ -651,11 +639,7 @@
           <t>San Diego</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -703,19 +687,11 @@
           <t xml:space="preserve">$7,840,162 </t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
@@ -736,11 +712,7 @@
           <t>San Diego</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -788,19 +760,11 @@
           <t xml:space="preserve">$5,767,614 </t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
@@ -821,11 +785,7 @@
           <t>San Diego</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -873,19 +833,11 @@
           <t xml:space="preserve">$3,394,531 </t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
@@ -906,11 +858,7 @@
           <t>San Diego</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -958,19 +906,11 @@
           <t xml:space="preserve">$3,085,863 </t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
@@ -991,11 +931,7 @@
           <t>Boca Raton</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FL </t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -1043,19 +979,11 @@
           <t xml:space="preserve">$3,715,233 </t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
@@ -1076,11 +1004,7 @@
           <t>Vista</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -1128,19 +1052,11 @@
           <t xml:space="preserve">$2,730,976 </t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
@@ -1161,11 +1077,7 @@
           <t>St. Lucie</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FL </t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>Land</t>
@@ -1201,11 +1113,7 @@
           <t xml:space="preserve"> $-   </t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
@@ -1230,11 +1138,7 @@
           <t>St. Lucie</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FL </t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -1282,19 +1186,11 @@
           <t xml:space="preserve">$3,922,812 </t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Variable </t>
-        </is>
-      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
@@ -1315,11 +1211,7 @@
           <t>St. Lucie</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FL </t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -1367,19 +1259,11 @@
           <t xml:space="preserve">$3,139,575 </t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -1400,11 +1284,7 @@
           <t>Bay Harbor Islands</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FL </t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>Retail</t>
@@ -1440,11 +1320,7 @@
           <t xml:space="preserve"> $-   </t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
@@ -1469,11 +1345,7 @@
           <t>Coral Springs</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FL </t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -1521,19 +1393,11 @@
           <t xml:space="preserve">$1,950,450 </t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
@@ -1554,11 +1418,7 @@
           <t>San Diego</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -1606,19 +1466,11 @@
           <t xml:space="preserve">$5,885,000 </t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
@@ -1639,11 +1491,7 @@
           <t>Escondido</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -1691,19 +1539,11 @@
           <t xml:space="preserve">$1,321,211 </t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
@@ -1724,11 +1564,7 @@
           <t>Murrieta</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -1776,19 +1612,11 @@
           <t xml:space="preserve">$4,878,138 </t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
@@ -1809,11 +1637,7 @@
           <t>Weston</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FL </t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -1861,19 +1685,11 @@
           <t xml:space="preserve">$2,817,023 </t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
@@ -1894,11 +1710,7 @@
           <t>Escondido</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -1946,19 +1758,11 @@
           <t xml:space="preserve">$1,779,945 </t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
@@ -1979,11 +1783,7 @@
           <t>Doral</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FL </t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -2031,19 +1831,11 @@
           <t xml:space="preserve">$6,041,198 </t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
@@ -2064,11 +1856,7 @@
           <t>San Diego</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>Retail</t>
@@ -2104,11 +1892,7 @@
           <t xml:space="preserve">$483,000 </t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
@@ -2133,11 +1917,7 @@
           <t>Boca Raton</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FL </t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -2185,19 +1965,11 @@
           <t xml:space="preserve">$2,246,203 </t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
@@ -2218,11 +1990,7 @@
           <t>Duluth</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -2270,19 +2038,11 @@
           <t xml:space="preserve">$2,200,662 </t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
@@ -2303,11 +2063,7 @@
           <t>Austin</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -2355,19 +2111,11 @@
           <t xml:space="preserve">$1,926,452 </t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
@@ -2388,11 +2136,7 @@
           <t xml:space="preserve">Dallas </t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -2440,19 +2184,11 @@
           <t xml:space="preserve">$2,840,787 </t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
@@ -2473,11 +2209,7 @@
           <t xml:space="preserve">Austin </t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -2525,19 +2257,11 @@
           <t xml:space="preserve">$1,518,077 </t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
@@ -2558,11 +2282,7 @@
           <t>Atlanta</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -2610,19 +2330,11 @@
           <t xml:space="preserve">$1,880,604 </t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Variable </t>
-        </is>
-      </c>
+      <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
@@ -2643,11 +2355,7 @@
           <t>Atlanta</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -2695,19 +2403,11 @@
           <t xml:space="preserve">$1,353,338 </t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Variable </t>
-        </is>
-      </c>
+      <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
@@ -2728,11 +2428,7 @@
           <t>Atlanta</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -2780,19 +2476,11 @@
           <t xml:space="preserve">$2,062,547 </t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Variable </t>
-        </is>
-      </c>
+      <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
@@ -2813,11 +2501,7 @@
           <t>Atlanta</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -2865,19 +2549,11 @@
           <t xml:space="preserve">$2,496,825 </t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Variable </t>
-        </is>
-      </c>
+      <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
@@ -2898,11 +2574,7 @@
           <t xml:space="preserve">Dallas </t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -2950,19 +2622,11 @@
           <t xml:space="preserve">$3,148,457 </t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
@@ -2983,11 +2647,7 @@
           <t>Kennesaw</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -3035,19 +2695,11 @@
           <t xml:space="preserve">$3,267,520 </t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
@@ -3068,11 +2720,7 @@
           <t>McDonough</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -3120,19 +2768,11 @@
           <t xml:space="preserve">$2,441,080 </t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
@@ -3153,11 +2793,7 @@
           <t>McDonough</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -3205,19 +2841,11 @@
           <t xml:space="preserve">$3,333,494 </t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
@@ -3238,11 +2866,7 @@
           <t xml:space="preserve">Dallas </t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -3290,19 +2914,11 @@
           <t xml:space="preserve">$3,399,515 </t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
+      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
@@ -3323,11 +2939,7 @@
           <t>Houston</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -3375,19 +2987,11 @@
           <t xml:space="preserve">$2,032,527 </t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
+      <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
@@ -3408,11 +3012,7 @@
           <t>San Marcos</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -3460,19 +3060,11 @@
           <t xml:space="preserve">$2,260,013 </t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
+      <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
@@ -3493,11 +3085,7 @@
           <t>Brookhaven</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -3545,19 +3133,11 @@
           <t xml:space="preserve">$1,452,075 </t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Variable </t>
-        </is>
-      </c>
+      <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
@@ -3578,11 +3158,7 @@
           <t>Alpharetta</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -3630,19 +3206,11 @@
           <t xml:space="preserve">$2,021,723 </t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
+      <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Variable </t>
-        </is>
-      </c>
+      <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
@@ -3663,11 +3231,7 @@
           <t>Canton</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -3715,19 +3279,11 @@
           <t xml:space="preserve">$2,381,100 </t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
+      <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Variable </t>
-        </is>
-      </c>
+      <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
@@ -3748,11 +3304,7 @@
           <t>Smyrna</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -3800,19 +3352,11 @@
           <t xml:space="preserve">$3,865,301 </t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
+      <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
@@ -3833,11 +3377,7 @@
           <t>Atlanta</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -3885,19 +3425,11 @@
           <t xml:space="preserve">$1,919,200 </t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
+      <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
@@ -3918,11 +3450,7 @@
           <t>Westworth Village</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -3970,19 +3498,11 @@
           <t xml:space="preserve">$3,320,179 </t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
+      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
@@ -4003,11 +3523,7 @@
           <t>Arlington</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -4055,19 +3571,11 @@
           <t xml:space="preserve">$3,429,680 </t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
@@ -4088,11 +3596,7 @@
           <t>Houston</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -4140,19 +3644,11 @@
           <t xml:space="preserve">$2,598,651 </t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
+      <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
@@ -4173,11 +3669,7 @@
           <t>Mansfield</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -4225,19 +3717,11 @@
           <t xml:space="preserve">$2,213,893 </t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
+      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
@@ -4258,11 +3742,7 @@
           <t>Atlanta</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -4310,19 +3790,11 @@
           <t xml:space="preserve">$2,971,683 </t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
+      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
@@ -4343,11 +3815,7 @@
           <t>Cary</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -4395,19 +3863,11 @@
           <t xml:space="preserve">$2,881,935 </t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
+      <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Variable </t>
-        </is>
-      </c>
+      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
@@ -4428,11 +3888,7 @@
           <t>Atlanta</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -4480,19 +3936,11 @@
           <t xml:space="preserve">$2,252,417 </t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
+      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
@@ -4513,11 +3961,7 @@
           <t>McKinney</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -4565,19 +4009,11 @@
           <t xml:space="preserve">$2,989,910 </t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
@@ -4598,11 +4034,7 @@
           <t>The Colony</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -4650,19 +4082,11 @@
           <t xml:space="preserve">$2,767,613 </t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
+      <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
@@ -4683,11 +4107,7 @@
           <t>Fort Worth</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -4735,19 +4155,11 @@
           <t xml:space="preserve">$2,448,251 </t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>1.9</t>
-        </is>
-      </c>
+      <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
@@ -4768,11 +4180,7 @@
           <t>Alpharetta</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -4820,19 +4228,11 @@
           <t xml:space="preserve">$2,652,215 </t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
+      <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
@@ -4853,11 +4253,7 @@
           <t>Durham</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -4905,19 +4301,11 @@
           <t xml:space="preserve">$2,322,975 </t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
+      <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
@@ -4938,11 +4326,7 @@
           <t>Atlanta</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -4990,19 +4374,11 @@
           <t xml:space="preserve">$2,554,489 </t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
+      <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
@@ -5023,11 +4399,7 @@
           <t>Grand Prairie</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -5075,19 +4447,11 @@
           <t xml:space="preserve">$3,366,509 </t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
+      <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
@@ -5108,11 +4472,7 @@
           <t>Live Oak</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -5160,19 +4520,11 @@
           <t xml:space="preserve">$3,069,784 </t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
+      <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
@@ -5193,11 +4545,7 @@
           <t>Dunwoody</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -5245,19 +4593,11 @@
           <t xml:space="preserve">$2,044,035 </t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
+      <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
@@ -5278,11 +4618,7 @@
           <t>Charlotte</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -5330,19 +4666,11 @@
           <t xml:space="preserve">$1,918,292 </t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
+      <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
@@ -5363,11 +4691,7 @@
           <t>Atlanta</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -5415,19 +4739,11 @@
           <t xml:space="preserve">$1,211,703 </t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
+      <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
@@ -5448,11 +4764,7 @@
           <t>Dallas</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
           <t>Multifamily (conventional)</t>
@@ -5500,19 +4812,11 @@
           <t xml:space="preserve">$3,853,606 </t>
         </is>
       </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
+      <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Variable </t>
-        </is>
-      </c>
+      <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>

--- a/ExtractSREO/Standardized-AP - REO excel 202112.xlsx
+++ b/ExtractSREO/Standardized-AP - REO excel 202112.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W62"/>
+  <dimension ref="A1:W69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,74 +553,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Property Name</t>
+          <t>Cresta Bella</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>11035 Via Livorno</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>City</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>State</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Asset Type</t>
+          <t>Multifamily (conventional)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>368</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Current Occupancy %</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Acquisition Date (yr)</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Lender</t>
+          <t>PNC</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Maturity Date</t>
+          <t>2029-07-28 00:00:00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Outstanding Loan Amount</t>
+          <t>75000000</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Annual Debt Service</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>NOI  (Period Ending YTD 2021)</t>
-        </is>
-      </c>
+          <t>2835975</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Total DCR </t>
+          <t>2.76453854494486</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
@@ -628,7 +624,7 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Loan Type</t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>
@@ -638,12 +634,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cresta Bella</t>
+          <t>Villas at Camino Bernardo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11035 Via Livorno</t>
+          <t>11203 Paseo Montanoso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -663,49 +659,45 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>344</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>PNC</t>
+          <t>NorthMarq Capital</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>7/28/2029</t>
+          <t>2027-01-01 00:00:00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t xml:space="preserve">$75,000,000 </t>
+          <t>45857464.23</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">$2,835,975 </t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$7,840,162 </t>
-        </is>
-      </c>
+          <t>1671650.04</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.45025225495164</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
@@ -713,7 +705,7 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
@@ -721,86 +713,30 @@
       <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Villas at Camino Bernardo</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>11203 Paseo Montanoso</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>San Diego</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Multifamily (conventional)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>344</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>94%</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>NorthMarq Capital</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>1/1/2027</t>
-        </is>
-      </c>
+          <t>Guardian</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$45,857,464 </t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$1,671,650 </t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$5,767,614 </t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
@@ -839,7 +775,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -854,28 +790,24 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>5/1/2027</t>
+          <t>2027-05-01 00:00:00</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t xml:space="preserve">$39,000,000 </t>
+          <t>39000000</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">$937,950 </t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$3,394,531 </t>
-        </is>
-      </c>
+          <t>937949.9999999999</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.6190956447571847</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
@@ -883,7 +815,7 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U5" t="inlineStr"/>
@@ -924,7 +856,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -939,28 +871,24 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>8/1/2023</t>
+          <t>2023-08-01 00:00:00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t xml:space="preserve">$18,558,921 </t>
+          <t>18558920.54</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">$1,223,196 </t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$3,085,863 </t>
-        </is>
-      </c>
+          <t>1223196</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.5227873374340652</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
@@ -968,7 +896,7 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U6" t="inlineStr"/>
@@ -976,86 +904,30 @@
       <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Palms of Boca del Mar</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>5515 Pacific Blvd</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Boca Raton</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FL </t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Multifamily (conventional)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>94%</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>PNC</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2/1/2026</t>
-        </is>
-      </c>
+          <t>NorthMarq Capital</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$37,800,000 </t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$1,417,500 </t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$3,715,233 </t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
@@ -1063,22 +935,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Summerwind Apts</t>
+          <t>Palms of Boca del Mar</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1580 Shadowridge Drive</t>
+          <t>5515 Pacific Blvd</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vista</t>
+          <t>Boca Raton</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t xml:space="preserve">FL </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1088,18 +960,18 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>320</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1109,28 +981,24 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>5/1/2027</t>
+          <t>2026-02-01 00:00:00</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t xml:space="preserve">$27,500,000 </t>
+          <t>37800000</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">$661,375 </t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,730,976 </t>
-        </is>
-      </c>
+          <t>1417500</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>2.6209756049382715</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
@@ -1138,7 +1006,7 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U8" t="inlineStr"/>
@@ -1148,68 +1016,80 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Grande Palms at Tradition</t>
+          <t>Summerwind Apts</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Community Parkway</t>
+          <t>1580 Shadowridge Drive</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>St. Lucie</t>
+          <t>Vista</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">FL </t>
+          <t>CA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Land</t>
+          <t>Multifamily (conventional)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>182</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PNC</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2027-05-01 00:00:00</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> $-   </t>
+          <t>27500000</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> $-   </t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $-   </t>
-        </is>
-      </c>
+          <t>661375</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>4.129239659799659</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
@@ -1217,7 +1097,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Atlantic Palms at Tradition</t>
+          <t>Grande Palms at Tradition</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1237,7 +1117,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Multifamily (conventional)</t>
+          <t>Land</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1246,55 +1126,35 @@
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Wells Fargo Bank</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>7/1/2031</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t xml:space="preserve">$41,400,000 </t>
+          <t>0</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">$1,526,832 </t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$3,922,812 </t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Variable </t>
-        </is>
-      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
@@ -1302,12 +1162,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Atlantic Tradition</t>
+          <t>Atlantic Palms at Tradition</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10297 SW Village Pkwy</t>
+          <t>Community Parkway</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1327,49 +1187,45 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>300</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Guardian </t>
+          <t>Wells Fargo Bank</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>2031-07-01 00:00:00</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t xml:space="preserve">$22,322,081 </t>
+          <t>41400000</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">$1,314,672 </t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$3,139,575 </t>
-        </is>
-      </c>
+          <t>1526831.9999999998</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.5692489939954104</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
@@ -1377,7 +1233,7 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Variable</t>
         </is>
       </c>
       <c r="U11" t="inlineStr"/>
@@ -1387,17 +1243,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1025 Kane Concourse</t>
+          <t>Atlantic Tradition</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1025 Kane Concourse, 215</t>
+          <t>10297 SW Village Pkwy</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Bay Harbor Islands</t>
+          <t>St. Lucie</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1407,133 +1263,89 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Retail</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>Multifamily (conventional)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guardian </t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2025-07-01 00:00:00</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> $-   </t>
+          <t>22322080.91</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> $-   </t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $-   </t>
-        </is>
-      </c>
+          <t>1314672</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>2.388105055861842</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Barrington Club</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>107000 West Sample Road</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Coral Springs</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FL </t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Multifamily (conventional)</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>93%</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>State Farm</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>9/1/2026</t>
-        </is>
-      </c>
+          <t>Northmark Capital</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$13,840,481 </t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$929,640 </t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$1,950,450 </t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
@@ -1541,84 +1353,64 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Village Apts</t>
+          <t>1025 Kane Concourse</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10955 Carmel Mountain Road</t>
+          <t>1025 Kane Concourse, 215</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>Bay Harbor Islands</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t xml:space="preserve">FL </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Multifamily (conventional)</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>276</t>
-        </is>
-      </c>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>PNC</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>10/10/2031</t>
-        </is>
-      </c>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t xml:space="preserve">$75,000,000 </t>
+          <t>0</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">$2,088,000 </t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$5,885,000 </t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
@@ -1626,22 +1418,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Oak Hills Apts</t>
+          <t>Barrington Club</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1302 Oak Hill Drive</t>
+          <t>107000 West Sample Road</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Escondido</t>
+          <t>Coral Springs</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t xml:space="preserve">FL </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1651,49 +1443,45 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>145</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>PNC</t>
+          <t>State Farm</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>5/1/2027</t>
+          <t>2026-09-01 00:00:00</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t xml:space="preserve">$12,300,000 </t>
+          <t>13840481.25</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">$295,815 </t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$1,321,211 </t>
-        </is>
-      </c>
+          <t>929640</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>2.0980698657544856</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
@@ -1701,7 +1489,7 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U15" t="inlineStr"/>
@@ -1709,86 +1497,30 @@
       <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Pacific Landing</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Clinton Keith Road</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Murrieta</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Multifamily (conventional)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>325</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>PNC</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>11/9/2024</t>
-        </is>
-      </c>
+          <t>Insurance Co.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$52,219,591 </t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,020,898 </t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$4,878,138 </t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
@@ -1796,22 +1528,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>St. Andrews at Weston</t>
+          <t>Village Apts</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>100 Bonaventure Blvd</t>
+          <t>10955 Carmel Mountain Road</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Weston</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">FL </t>
+          <t>CA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1821,49 +1553,45 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>276</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>State Farm</t>
+          <t>PNC</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>8/1/2026</t>
+          <t>2031-10-10 00:00:00</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t xml:space="preserve">$26,115,043 </t>
+          <t>75000000</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">$1,560,336 </t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,817,023 </t>
-        </is>
-      </c>
+          <t>2087999.9999999998</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>2.8184865900383147</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr"/>
@@ -1871,7 +1599,7 @@
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U17" t="inlineStr"/>
@@ -1881,12 +1609,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>The Willows Apts</t>
+          <t>Oak Hills Apts</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2460 Bear Valley Parkway</t>
+          <t>1302 Oak Hill Drive</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1906,49 +1634,45 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>110</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>NorthMarq Capital</t>
+          <t>PNC</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>8/1/2028</t>
+          <t>2027-05-01 00:00:00</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t xml:space="preserve">$17,148,855 </t>
+          <t>12300000</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">$754,550 </t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$1,779,945 </t>
-        </is>
-      </c>
+          <t>295815</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>4.466342004293224</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
@@ -1956,7 +1680,7 @@
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U18" t="inlineStr"/>
@@ -1966,22 +1690,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Doral Grande Residences</t>
+          <t>Pacific Landing</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>74th Street and 107th Avenue</t>
+          <t>Clinton Keith Road</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Doral</t>
+          <t>Murrieta</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">FL </t>
+          <t>CA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1991,49 +1715,45 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>325</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Wells Fargo Bank</t>
+          <t>PNC</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>9/13/2023</t>
+          <t>2024-11-09 00:00:00</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t xml:space="preserve">$59,672,160 </t>
+          <t>52219590.620000005</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">$3,104,606 </t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$6,041,198 </t>
-        </is>
-      </c>
+          <t>2020898.156994</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.413846448974956</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
@@ -2041,7 +1761,7 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U19" t="inlineStr"/>
@@ -2049,66 +1769,26 @@
       <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Rancho</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>11075 Carmel Mountain Rd</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>San Diego</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Retail</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Freddie Mac</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $-   </t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $-   </t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$483,000 </t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
@@ -2120,17 +1800,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Boca Colony</t>
+          <t>St. Andrews at Weston</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6061 Boca Colony Drive</t>
+          <t>100 Bonaventure Blvd</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Boca Raton</t>
+          <t>Weston</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2145,49 +1825,45 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>208</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Freddie Mac</t>
+          <t>State Farm</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>7/1/2028</t>
+          <t>2026-08-01 00:00:00</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t xml:space="preserve">$23,090,000 </t>
+          <t>26115043.21</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">$1,009,033 </t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,246,203 </t>
-        </is>
-      </c>
+          <t>1560336</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.8053948700792648</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
@@ -2195,7 +1871,7 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U21" t="inlineStr"/>
@@ -2203,86 +1879,30 @@
       <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>The Atlantic Howell Station</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>3655 Peachtree Ind. NW</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Duluth</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Multifamily (conventional)</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>228</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>98%</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>PNC</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>4/28/2024</t>
-        </is>
-      </c>
+          <t>Insurance Co.</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$13,348,926 </t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$768,000 </t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,200,662 </t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
@@ -2290,22 +1910,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>The Crossings</t>
+          <t>The Willows Apts</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9323 Manchaca Road</t>
+          <t>2460 Bear Valley Parkway</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Escondido</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2315,49 +1935,45 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>137</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Freddie Mac</t>
+          <t>NorthMarq Capital</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2/1/2029</t>
+          <t>2028-08-01 00:00:00</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t xml:space="preserve">$23,776,000 </t>
+          <t>17148854.62</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">$1,022,368 </t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$1,926,452 </t>
-        </is>
-      </c>
+          <t>754549.6032800002</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.3589509056298494</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
@@ -2365,7 +1981,7 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U23" t="inlineStr"/>
@@ -2373,86 +1989,30 @@
       <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Sutton Place</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>18600 N. Dallas Parkway</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dallas </t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Multifamily (conventional)</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>97%</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>PNC</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>12/1/2031</t>
-        </is>
-      </c>
+          <t>Freddie Mac</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$32,104,920 </t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$1,114,041 </t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,840,787 </t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
@@ -2460,22 +2020,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Logan's Mill</t>
+          <t>Doral Grande Residences</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1912 East William Cannon</t>
+          <t>74th Street and 107th Avenue</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Austin </t>
+          <t>Doral</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t xml:space="preserve">FL </t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2485,49 +2045,45 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>360</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>91%</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Freddie Mac</t>
+          <t>Wells Fargo Bank</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>12/1/2028</t>
+          <t>2023-09-13 00:00:00</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t xml:space="preserve">$18,000,000 </t>
+          <t>59672160</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">$810,000 </t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$1,518,077 </t>
-        </is>
-      </c>
+          <t>3104606.4</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.9458822445254251</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
@@ -2535,7 +2091,7 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U25" t="inlineStr"/>
@@ -2545,84 +2101,64 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sloan Square</t>
+          <t>Rancho</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1555 Lavista Rd</t>
+          <t>11075 Carmel Mountain Rd</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Multifamily (conventional)</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Prudential</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>4/10/2023</t>
-        </is>
-      </c>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t xml:space="preserve">$22,173,552 </t>
+          <t>0</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">$904,681 </t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$1,880,604 </t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Variable </t>
-        </is>
-      </c>
+      <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
@@ -2630,22 +2166,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Morningside Courts</t>
+          <t>Boca Colony</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>594 Wimbledon Rd</t>
+          <t>6061 Boca Colony Drive</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Boca Raton</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t xml:space="preserve">FL </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2655,49 +2191,45 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>180</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Prudential</t>
+          <t>Freddie Mac</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>4/10/2023</t>
+          <t>2028-07-01 00:00:00</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t xml:space="preserve">$19,209,363 </t>
+          <t>23090000</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">$773,945 </t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$1,353,338 </t>
-        </is>
-      </c>
+          <t>1009033.0000000001</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.226094785799869</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
@@ -2705,7 +2237,7 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Variable </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U27" t="inlineStr"/>
@@ -2713,86 +2245,30 @@
       <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clifton </t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1901 Briacliff Rd NE</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Multifamily (conventional)</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>214</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>92%</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Prudential</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>4/10/2023</t>
-        </is>
-      </c>
+          <t>Grandbridge</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$28,309,674 </t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$1,140,880 </t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,062,547 </t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Variable </t>
-        </is>
-      </c>
+      <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
@@ -2800,17 +2276,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Townview</t>
+          <t>The Atlantic Howell Station</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>300 Deering Road NW</t>
+          <t>3655 Peachtree Ind. NW</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Duluth</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2825,49 +2301,45 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>228</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>0.978</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Prudential</t>
+          <t>PNC</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>4/10/2023</t>
+          <t>2024-04-28 00:00:00</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t xml:space="preserve">$32,206,808 </t>
+          <t>13348926</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">$1,281,831 </t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,496,825 </t>
-        </is>
-      </c>
+          <t>768000</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.8654450911458333</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
@@ -2875,7 +2347,7 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Variable </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U29" t="inlineStr"/>
@@ -2885,22 +2357,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Harris Bridge</t>
+          <t>The Crossings</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1175 Old Harris Rd</t>
+          <t>9323 Manchaca Road</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dallas </t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2910,18 +2382,18 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>240</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>0.9542</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2931,28 +2403,24 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>12/9/2024</t>
+          <t>2029-02-01 00:00:00</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t xml:space="preserve">$18,993,000 </t>
+          <t>23776000</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">$721,734 </t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$3,148,457 </t>
-        </is>
-      </c>
+          <t>1022367.9999999999</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>1.8843043405114404</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
@@ -2960,7 +2428,7 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U30" t="inlineStr"/>
@@ -2970,22 +2438,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Shiloh Valley</t>
+          <t>Sutton Place</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2100 Shiloh Valley Dr</t>
+          <t>18600 N. Dallas Parkway</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Kennesaw</t>
+          <t xml:space="preserve">Dallas </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2995,49 +2463,45 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>456</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>0.9671</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Freddie Mac</t>
+          <t>PNC</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>12/9/2024</t>
+          <t>2031-12-01 00:00:00</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t xml:space="preserve">$22,932,000 </t>
+          <t>32104920</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">$871,416 </t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$3,267,520 </t>
-        </is>
-      </c>
+          <t>1114040.7240000002</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>2.549984923172341</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
@@ -3045,7 +2509,7 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U31" t="inlineStr"/>
@@ -3055,22 +2519,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Carrington Green</t>
+          <t>Logan's Mill</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>745 Hwy 42 South</t>
+          <t>1912 East William Cannon</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>McDonough</t>
+          <t xml:space="preserve">Austin </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3080,18 +2544,18 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>256</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>0.9141</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3101,28 +2565,24 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>12/9/2024</t>
+          <t>2028-12-01 00:00:00</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t xml:space="preserve">$15,600,000 </t>
+          <t>18000000</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">$592,800 </t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,441,080 </t>
-        </is>
-      </c>
+          <t>810000</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>1.8741691234567903</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
@@ -3130,7 +2590,7 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U32" t="inlineStr"/>
@@ -3140,17 +2600,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Villas at Southpoint</t>
+          <t>Sloan Square</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1690 GA Hwy 20 West</t>
+          <t>1555 Lavista Rd</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>McDonough</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3165,49 +2625,45 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>197</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Freddie Mac</t>
+          <t>Prudential</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>12/9/2024</t>
+          <t>2023-04-10 00:00:00</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t xml:space="preserve">$21,775,000 </t>
+          <t>22173552.25</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">$827,450 </t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$3,333,494 </t>
-        </is>
-      </c>
+          <t>904680.9318</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>2.078748566368313</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
@@ -3215,7 +2671,7 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Variable</t>
         </is>
       </c>
       <c r="U33" t="inlineStr"/>
@@ -3225,22 +2681,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Barons</t>
+          <t>Morningside Courts</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2101 US Hwy 80 E</t>
+          <t>594 Wimbledon Rd</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dallas </t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3250,49 +2706,45 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>172</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Freddie Mac</t>
+          <t>Prudential</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>12/9/2024</t>
+          <t>2023-04-10 00:00:00</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t xml:space="preserve">$28,015,000 </t>
+          <t>19209363.12</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">$1,092,585 </t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$3,399,515 </t>
-        </is>
-      </c>
+          <t>773945.2401048</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>1.7486226542548986</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
@@ -3300,7 +2752,7 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Variable</t>
         </is>
       </c>
       <c r="U34" t="inlineStr"/>
@@ -3310,22 +2762,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Villas at West Road</t>
+          <t xml:space="preserve">Clifton </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>9500 West Rd</t>
+          <t>1901 Briacliff Rd NE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3335,49 +2787,45 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>214</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Freddie Mac</t>
+          <t>Prudential</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1/13/2025</t>
+          <t>2023-04-10 00:00:00</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t xml:space="preserve">$22,230,000 </t>
+          <t>28309673.83</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">$829,920 </t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,032,527 </t>
-        </is>
-      </c>
+          <t>1140879.855349</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.807856612008508</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
@@ -3385,7 +2833,7 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Variable</t>
         </is>
       </c>
       <c r="U35" t="inlineStr"/>
@@ -3395,22 +2843,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Palazzo</t>
+          <t>Townview</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1011 Wonder world Dr</t>
+          <t>300 Deering Road NW</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>San Marcos</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3420,13 +2868,13 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>277</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3436,33 +2884,29 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Freddie Mac</t>
+          <t>Prudential</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>11/1/2030</t>
+          <t>2023-04-10 00:00:00</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t xml:space="preserve">$29,700,000 </t>
+          <t>32206808.09</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">$816,750 </t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,260,013 </t>
-        </is>
-      </c>
+          <t>1281830.9619820002</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>1.9478585742220984</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
@@ -3470,7 +2914,7 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Variable</t>
         </is>
       </c>
       <c r="U36" t="inlineStr"/>
@@ -3480,17 +2924,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Legacy Century Center</t>
+          <t>Harris Bridge</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>100 Windmont Dr</t>
+          <t>1175 Old Harris Rd</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Brookhaven</t>
+          <t xml:space="preserve">Dallas </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3505,13 +2949,13 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>332</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>96%</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3521,33 +2965,29 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Prudential</t>
+          <t>Freddie Mac</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>4/10/2023</t>
+          <t>2024-12-09 00:00:00</t>
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t xml:space="preserve">$17,384,155 </t>
+          <t>18993000</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">$691,889 </t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$1,452,075 </t>
-        </is>
-      </c>
+          <t>721734</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>4.362351364907292</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
@@ -3555,7 +2995,7 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Variable </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U37" t="inlineStr"/>
@@ -3565,17 +3005,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ashley Forest</t>
+          <t>Shiloh Valley</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>9230 Nesbit Ferry Rd</t>
+          <t>2100 Shiloh Valley Dr</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Alpharetta</t>
+          <t>Kennesaw</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3590,13 +3030,13 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>300</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>91%</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3606,33 +3046,29 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>PNC</t>
+          <t>Freddie Mac</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2/28/2027</t>
+          <t>2024-12-09 00:00:00</t>
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t xml:space="preserve">$23,952,500 </t>
+          <t>22932000</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">$735,941 </t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,021,723 </t>
-        </is>
-      </c>
+          <t>871416</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.3576180836568477</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr"/>
@@ -3640,7 +3076,7 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Variable </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U38" t="inlineStr"/>
@@ -3648,47 +3084,15 @@
       <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Bridge Mill Apartmetns</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1000 Preston Glen Cr</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Canton</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Multifamily (conventional)</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
           <t>Freddie Mac</t>
@@ -3696,36 +3100,28 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>12/1/2028</t>
+          <t>2025-01-01 00:00:00</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t xml:space="preserve">$38,500,000 </t>
+          <t>2500000</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">$1,536,150 </t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,381,100 </t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
+          <t>101750</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Variable </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U39" t="inlineStr"/>
@@ -3735,17 +3131,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Vinings</t>
+          <t>Carrington Green</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3385 Atlanta Rd</t>
+          <t>745 Hwy 42 South</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Smyrna</t>
+          <t>McDonough</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3760,18 +3156,18 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>264</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3781,28 +3177,24 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>6/1/2023</t>
+          <t>2024-12-09 00:00:00</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t xml:space="preserve">$40,180,000 </t>
+          <t>15600000</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">$1,410,318 </t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$3,865,301 </t>
-        </is>
-      </c>
+          <t>592800</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>4.117881663292848</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr"/>
@@ -3810,7 +3202,7 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U40" t="inlineStr"/>
@@ -3820,17 +3212,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ashford</t>
+          <t>Villas at Southpoint</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3716 Ashford Dunwoody</t>
+          <t>1690 GA Hwy 20 West</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>McDonough</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3845,18 +3237,18 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>284</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3866,28 +3258,24 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>6/1/2023</t>
+          <t>2024-12-09 00:00:00</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t xml:space="preserve">$21,140,000 </t>
+          <t>21775000</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">$756,812 </t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$1,919,200 </t>
-        </is>
-      </c>
+          <t>827450</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>4.028635506677141</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
@@ -3895,7 +3283,7 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U41" t="inlineStr"/>
@@ -3905,17 +3293,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Blue Atlantic Hawks Creek</t>
+          <t>Barons</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>101 N. Roaring Springs Rd.</t>
+          <t>2101 US Hwy 80 E</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Westworth Village</t>
+          <t xml:space="preserve">Dallas </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3930,18 +3318,18 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>508</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3951,28 +3339,24 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>10/1/2023</t>
+          <t>2024-12-09 00:00:00</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t xml:space="preserve">$31,220,000 </t>
+          <t>28015000</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">$1,045,870 </t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$3,320,179 </t>
-        </is>
-      </c>
+          <t>1092585</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.1114423774809286</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr"/>
@@ -3980,7 +3364,7 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U42" t="inlineStr"/>
@@ -3990,17 +3374,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Blue Atlantic Franciscan</t>
+          <t>Villas at West Road</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3006 Franciscan Dr.</t>
+          <t>9500 West Rd</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Arlington</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -4015,18 +3399,18 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>240</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -4036,28 +3420,24 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>11/1/2023</t>
+          <t>2025-01-13 00:00:00</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t xml:space="preserve">$34,800,000 </t>
+          <t>22230000</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">$1,165,800 </t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$3,429,680 </t>
-        </is>
-      </c>
+          <t>829920</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.4490632350106036</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr"/>
@@ -4065,7 +3445,7 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U43" t="inlineStr"/>
@@ -4075,17 +3455,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Vintage</t>
+          <t>Palazzo</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>15727 Cutten Rd</t>
+          <t>1011 Wonder world Dr</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -4100,18 +3480,18 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>300</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -4121,28 +3501,24 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>9/1/2026</t>
+          <t>2030-11-01 00:00:00</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t xml:space="preserve">$32,250,000 </t>
+          <t>29700000</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve">$1,196,475 </t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,598,651 </t>
-        </is>
-      </c>
+          <t>816750</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.767080783593511</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr"/>
@@ -4150,7 +3526,7 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U44" t="inlineStr"/>
@@ -4160,22 +3536,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Blue Atlantic Walnut Crek</t>
+          <t>Legacy Century Center</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3251 Matlock Rd</t>
+          <t>100 Windmont Dr</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mansfield</t>
+          <t>Brookhaven</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -4185,49 +3561,45 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>178</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Fannie Mae</t>
+          <t>Prudential</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>3/1/2024</t>
+          <t>2023-04-10 00:00:00</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t xml:space="preserve">$21,125,000 </t>
+          <t>17384154.88</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">$840,775 </t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,213,893 </t>
-        </is>
-      </c>
+          <t>691889.364224</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.0987098155911075</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr"/>
@@ -4235,7 +3607,7 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Variable</t>
         </is>
       </c>
       <c r="U45" t="inlineStr"/>
@@ -4245,17 +3617,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Blue Atlantic Hartsfield</t>
+          <t>Ashley Forest</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3640 South Fulton Ave</t>
+          <t>9230 Nesbit Ferry Rd</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Alpharetta</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -4270,49 +3642,45 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>220</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>0.9119439609966727</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Freddie Mac</t>
+          <t>PNC</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>10/1/2024</t>
+          <t>2027-02-28 00:00:00</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t xml:space="preserve">$33,271,000 </t>
+          <t>23952500</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">$1,324,186 </t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,971,683 </t>
-        </is>
-      </c>
+          <t>735940.5625</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.747127978830491</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr"/>
@@ -4320,7 +3688,7 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Variable</t>
         </is>
       </c>
       <c r="U46" t="inlineStr"/>
@@ -4330,22 +3698,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Harrison Grande</t>
+          <t>Bridge Mill Apartmetns</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>300 Sudbury Dr.</t>
+          <t>1000 Preston Glen Cr</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cary</t>
+          <t>Canton</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4355,18 +3723,18 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>236</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>0.9499999634203173</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -4376,28 +3744,24 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>1/1/2023</t>
+          <t>2028-12-01 00:00:00</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t xml:space="preserve">$34,844,000 </t>
+          <t>38500000</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">$1,324,072 </t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,881,935 </t>
-        </is>
-      </c>
+          <t>1536150.0000000002</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>1.5500440451778796</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr"/>
@@ -4405,7 +3769,7 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Variable </t>
+          <t>Variable</t>
         </is>
       </c>
       <c r="U47" t="inlineStr"/>
@@ -4413,86 +3777,30 @@
       <c r="W47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Brookwood Valley</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2035 Peachtree Rd</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Multifamily (conventional)</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>96%</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Freddie Mac</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>4/1/2025</t>
-        </is>
-      </c>
+          <t>CBRE</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$23,907,870 </t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$1,030,429 </t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,252,417 </t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
@@ -4500,22 +3808,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Atlantic McKinney Ranch</t>
+          <t>Vinings</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5500 McKinney Place Dr</t>
+          <t>3385 Atlanta Rd</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>McKinney</t>
+          <t>Smyrna</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4525,18 +3833,18 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>403</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -4546,28 +3854,24 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>6/1/2025</t>
+          <t>2023-06-01 00:00:00</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t xml:space="preserve">$35,197,000 </t>
+          <t>40180000</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">$1,534,589 </t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,989,910 </t>
-        </is>
-      </c>
+          <t>1410318</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.7407298566706233</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr"/>
@@ -4575,7 +3879,7 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U49" t="inlineStr"/>
@@ -4585,22 +3889,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Atlantic Stonebriar</t>
+          <t>Ashford</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5620 S Colony Blvd</t>
+          <t>3716 Ashford Dunwoody</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>The Colony</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4610,18 +3914,18 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>222</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -4631,28 +3935,24 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>6/1/2025</t>
+          <t>2023-06-01 00:00:00</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t xml:space="preserve">$29,037,000 </t>
+          <t>21140000</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">$1,268,917 </t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,767,613 </t>
-        </is>
-      </c>
+          <t>756812</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.535900725675597</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr"/>
@@ -4660,7 +3960,7 @@
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U50" t="inlineStr"/>
@@ -4670,17 +3970,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Atlantic Station</t>
+          <t>Blue Atlantic Hawks Creek</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2650 Western Center Blvd</t>
+          <t>101 N. Roaring Springs Rd.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Westworth Village</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4695,18 +3995,18 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>312</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4716,28 +4016,24 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>8/1/2025</t>
+          <t>2023-10-01 00:00:00</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t xml:space="preserve">$30,013,000 </t>
+          <t>31220000</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">$1,287,558 </t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,448,251 </t>
-        </is>
-      </c>
+          <t>1045870.0000000001</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>3.1745618958379143</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr"/>
@@ -4745,7 +4041,7 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U51" t="inlineStr"/>
@@ -4755,22 +4051,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Pointe at Preston Ridge</t>
+          <t>Blue Atlantic Franciscan</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>950 Executive Dr</t>
+          <t>3006 Franciscan Dr.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Alpharetta</t>
+          <t>Arlington</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4780,18 +4076,18 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>418</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4801,28 +4097,24 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>8/1/2025</t>
+          <t>2023-11-01 00:00:00</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t xml:space="preserve">$28,190,000 </t>
+          <t>34800000</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">$1,167,066 </t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,652,215 </t>
-        </is>
-      </c>
+          <t>1165800</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.9419109023846284</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr"/>
@@ -4830,7 +4122,7 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U52" t="inlineStr"/>
@@ -4840,22 +4132,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Flats @ 55Twelve</t>
+          <t>Vintage</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5512 Sunlight Drive</t>
+          <t>15727 Cutten Rd</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Durham</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4865,18 +4157,18 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>324</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4886,28 +4178,24 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>9/1/2026</t>
+          <t>2026-09-01 00:00:00</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t xml:space="preserve">$27,380,000 </t>
+          <t>32250000</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">$919,968 </t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,322,975 </t>
-        </is>
-      </c>
+          <t>1196475</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.171922539125347</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr"/>
@@ -4915,7 +4203,7 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U53" t="inlineStr"/>
@@ -4925,22 +4213,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>City View</t>
+          <t>Blue Atlantic Walnut Crek</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>433 Highland Avenue NE</t>
+          <t>3251 Matlock Rd</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Mansfield</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4950,49 +4238,45 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>256</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Freddie Mac</t>
+          <t>Fannie Mae</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>10/1/2026</t>
+          <t>2024-03-01 00:00:00</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t xml:space="preserve">$35,350,000 </t>
+          <t>21125000</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">$1,208,970 </t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,554,489 </t>
-        </is>
-      </c>
+          <t>840775</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.6331574321310702</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr"/>
@@ -5000,7 +4284,7 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U54" t="inlineStr"/>
@@ -5010,22 +4294,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2803 Riverside</t>
+          <t>Blue Atlantic Hartsfield</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2803 Riverside Parkway</t>
+          <t>3640 South Fulton Ave</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Grand Prairie</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -5035,18 +4319,18 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>269</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -5056,28 +4340,24 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>1/1/2027</t>
+          <t>2024-10-01 00:00:00</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t xml:space="preserve">$48,585,000 </t>
+          <t>33271000</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve">$1,758,777 </t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$3,366,509 </t>
-        </is>
-      </c>
+          <t>1324185.8</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>2.2441584859164023</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr"/>
@@ -5085,7 +4365,7 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U55" t="inlineStr"/>
@@ -5095,22 +4375,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Mira Loma</t>
+          <t>Harrison Grande</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7601 Gateway Blvd</t>
+          <t>300 Sudbury Dr.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Live Oak</t>
+          <t>Cary</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -5120,18 +4400,18 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>319</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -5141,28 +4421,24 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>7/1/2027</t>
+          <t>2023-01-01 00:00:00</t>
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t xml:space="preserve">$35,100,000 </t>
+          <t>34844000</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">$979,290 </t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$3,069,784 </t>
-        </is>
-      </c>
+          <t>1324072</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.176570058123728</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr"/>
@@ -5170,7 +4446,7 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Variable</t>
         </is>
       </c>
       <c r="U56" t="inlineStr"/>
@@ -5180,17 +4456,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Parc at Dunwoody</t>
+          <t>Brookwood Valley</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1067 Pitts Rd</t>
+          <t>2035 Peachtree Rd</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Dunwoody</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -5205,18 +4481,18 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>240</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -5226,28 +4502,24 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>10/1/2030</t>
+          <t>2025-04-01 00:00:00</t>
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t xml:space="preserve">$32,300,000 </t>
+          <t>23907869.87</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">$831,815 </t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,044,035 </t>
-        </is>
-      </c>
+          <t>1030429.191397</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.1859019026298108</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr"/>
@@ -5255,7 +4527,7 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U57" t="inlineStr"/>
@@ -5265,22 +4537,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Preserve at Mountain</t>
+          <t>Atlantic McKinney Ranch</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>10410 Cooks Way</t>
+          <t>5500 McKinney Place Dr</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>McKinney</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -5290,18 +4562,18 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>343</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -5311,28 +4583,24 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>1/1/2028</t>
+          <t>2025-06-01 00:00:00</t>
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t xml:space="preserve">$28,925,000 </t>
+          <t>35197000</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">$740,480 </t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$1,918,292 </t>
-        </is>
-      </c>
+          <t>1534589.2</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>1.9483453878080204</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr"/>
@@ -5340,7 +4608,7 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U58" t="inlineStr"/>
@@ -5350,22 +4618,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Grace Apartments</t>
+          <t>Atlantic Stonebriar</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1104 Westchase Street</t>
+          <t>5620 S Colony Blvd</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>The Colony</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -5375,49 +4643,45 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>294</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>CIBC</t>
+          <t>Freddie Mac</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>6/1/2026</t>
+          <t>2025-06-01 00:00:00</t>
         </is>
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t xml:space="preserve">$23,800,000 </t>
+          <t>29037000</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">$476,000 </t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$1,211,703 </t>
-        </is>
-      </c>
+          <t>1268916.9000000001</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.1810831662814167</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr"/>
@@ -5425,7 +4689,7 @@
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fixed </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U59" t="inlineStr"/>
@@ -5435,17 +4699,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Blue Atlantic West Lemmon LP</t>
+          <t>Atlantic Station</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3600 Wheeler Street</t>
+          <t>2650 Western Center Blvd</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -5460,49 +4724,45 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>324</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>BREF VI TRS LLC</t>
+          <t>Freddie Mac</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>1/1/2025</t>
+          <t>2025-08-01 00:00:00</t>
         </is>
       </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t xml:space="preserve">$57,167,295 </t>
+          <t>30013000</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve">$1,114,762 </t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$3,853,606 </t>
-        </is>
-      </c>
+          <t>1287557.7</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>1.901469285609492</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr"/>
@@ -5510,7 +4770,7 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Variable </t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="U60" t="inlineStr"/>
@@ -5518,58 +4778,733 @@
       <c r="W60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Pointe at Preston Ridge</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>950 Executive Dr</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Alpharetta</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Multifamily (conventional)</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Freddie Mac</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2025-08-01 00:00:00</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>28190000</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>1167066</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>2.2725495387578762</t>
+        </is>
+      </c>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Flats @ 55Twelve</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>5512 Sunlight Drive</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Durham</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Multifamily (conventional)</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+          <t>0.944</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Freddie Mac</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>2026-09-01 00:00:00</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>27380000</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>919968</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>2.5250611325611323</t>
+        </is>
+      </c>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>City View</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>433 Highland Avenue NE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Multifamily (conventional)</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>0.9167</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Freddie Mac</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2026-10-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>35350000</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>1208970</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>2.1129468721308218</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2803 Riverside</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2803 Riverside Parkway</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Grand Prairie</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Multifamily (conventional)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>0.9335</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Freddie Mac</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2027-01-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>48585000</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>1758777.0000000002</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>1.9141194762042029</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Mira Loma</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>7601 Gateway Blvd</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Live Oak</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Multifamily (conventional)</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Freddie Mac</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2027-07-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>35100000</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>979290</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>3.13470383645294</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Parc at Dunwoody</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1067 Pitts Rd</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Dunwoody</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Multifamily (conventional)</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Freddie Mac</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>2030-10-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>32300000</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>831815</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>2.457319007231175</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Preserve at Mountain</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>10410 Cooks Way</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Multifamily (conventional)</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Freddie Mac</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2028-01-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>28925000</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>740480</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>2.590606417458946</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Grace Apartments</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1104 Westchase Street</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Multifamily (conventional)</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>CIBC</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2026-06-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>23800000</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>476000</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>2.545594537815126</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Blue Atlantic West Lemmon LP</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>3600 Wheeler Street</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Multifamily (conventional)</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>BREF VI TRS LLC</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>2025-01-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>57167295</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>1114762.2525</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>3.4568859784745896</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
